--- a/transformation-tables/4_social-vulnerability-schema.xlsx
+++ b/transformation-tables/4_social-vulnerability-schema.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/murrayjourneay/Google Drive/National Risk Model/risk-domain-schema/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/murrayjourneay/OpenDRR/opendrr-data-store/transformation-tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1602CDB4-6790-AE41-AF7C-078BC806E095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48900C0F-FF78-9D47-AB32-A7026C3BC567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,9 +258,6 @@
     <t>Population in pre-1957  Homes (threshold)</t>
   </si>
   <si>
-    <t>IF [Bus_Ha_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>Hshld_NSuit</t>
   </si>
   <si>
@@ -297,9 +294,6 @@
     <t>Hshld_MntnAge</t>
   </si>
   <si>
-    <t>IF [Pre_1975_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>Limited Capacity Household Maintainer</t>
   </si>
   <si>
@@ -324,9 +318,6 @@
     <t>Hshld_Mntn1</t>
   </si>
   <si>
-    <t>IF [Hshld_NSuit_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>Hshld_MntnAge_t</t>
   </si>
   <si>
@@ -363,9 +354,6 @@
     <t>1.3.1.15</t>
   </si>
   <si>
-    <t>IF [Hshld_MntnAge_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>1.3.1.16</t>
   </si>
   <si>
@@ -384,9 +372,6 @@
     <t>1.3.2 Family Structure</t>
   </si>
   <si>
-    <t>IF [Hshld_Mntn1_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>1.3.2.1</t>
   </si>
   <si>
@@ -420,9 +405,6 @@
     <t>1.3.2.3</t>
   </si>
   <si>
-    <t>IF [Renter_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>Renter_t</t>
   </si>
   <si>
@@ -453,9 +435,6 @@
     <t>1.3.2.6</t>
   </si>
   <si>
-    <t>IF [Live_Alone_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>IF [Renter_t] =1 Then ([Renter] x [CensusPop]</t>
   </si>
   <si>
@@ -495,9 +474,6 @@
     <t>Lone Parents with 3 Children (threshold)</t>
   </si>
   <si>
-    <t>IF [LonePar3Kids_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>LonePar3Kids_t</t>
   </si>
   <si>
@@ -534,9 +510,6 @@
     <t>Moved_LT1</t>
   </si>
   <si>
-    <t>IF [Fam_GT5_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>Fam_GT5_t</t>
   </si>
   <si>
@@ -570,9 +543,6 @@
     <t>Immigrated Within Last 5 Years</t>
   </si>
   <si>
-    <t>IF [Moved_LT1_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>Moved_LT1_t</t>
   </si>
   <si>
@@ -603,9 +573,6 @@
     <t>1.3.2.18</t>
   </si>
   <si>
-    <t>IF [Imm_LT5_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>Imm_LT5_t</t>
   </si>
   <si>
@@ -633,9 +600,6 @@
     <t>1.3.3.3</t>
   </si>
   <si>
-    <t>IF [No_EngFr_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>No_EngFr_t</t>
   </si>
   <si>
@@ -675,9 +639,6 @@
     <t>Individual Autonomy Threshold</t>
   </si>
   <si>
-    <t>IF [NoSec_School_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>NoSec_School_t</t>
   </si>
   <si>
@@ -711,9 +672,6 @@
     <t>NoSec_School_p</t>
   </si>
   <si>
-    <t>IF [Age_GT65_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>Age_GT65_t</t>
   </si>
   <si>
@@ -753,9 +711,6 @@
     <t>Yoiunger than 6 Years (threshold)</t>
   </si>
   <si>
-    <t>IF [Age_LT6_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>Age_LT6_t</t>
   </si>
   <si>
@@ -801,9 +756,6 @@
     <t>Visible Minority (threshold)</t>
   </si>
   <si>
-    <t>IF [Indigenous_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>Indigenous_t</t>
   </si>
   <si>
@@ -828,9 +780,6 @@
     <t>1.3.3.18</t>
   </si>
   <si>
-    <t>IF [Vis_Min_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>Vis_Min_t</t>
   </si>
   <si>
@@ -864,9 +813,6 @@
     <t>1.3.4.3</t>
   </si>
   <si>
-    <t>IF [Shltr_GT30_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>Shltr_GT30_p</t>
   </si>
   <si>
@@ -909,9 +855,6 @@
     <t>Lower Income Decile (threshold)</t>
   </si>
   <si>
-    <t>IF [Inc_LowDecile_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>Unemployed</t>
   </si>
   <si>
@@ -960,9 +903,6 @@
     <t>Work_Parttime</t>
   </si>
   <si>
-    <t>IF [Unemployed_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>Unemployed_t</t>
   </si>
   <si>
@@ -999,9 +939,6 @@
     <t>Receives Income Assistance</t>
   </si>
   <si>
-    <t>IF [Work_None_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>Work_None_t</t>
   </si>
   <si>
@@ -1029,9 +966,6 @@
     <t>1.3.4.15</t>
   </si>
   <si>
-    <t>IF [Work_Parttime_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>Work_Parttime_t</t>
   </si>
   <si>
@@ -1050,9 +984,6 @@
     <t>1.3.4.18</t>
   </si>
   <si>
-    <t>IF [Employ_Inc_n] &gt;=0.95 Then 1 Else 0</t>
-  </si>
-  <si>
     <t>Employ_Inc_t</t>
   </si>
   <si>
@@ -1069,13 +1000,82 @@
   </si>
   <si>
     <t>IF [Employ_Inc_t] =1 Then ([Employ_Inc] x [CensusPop]</t>
+  </si>
+  <si>
+    <t>IF [Bus_Ha_n] &gt;=0.0491 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [Pre_1975_n] &gt;=0.7699 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [Hshld_NSuit_n] &gt;=0.5523 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [Hshld_MntnAge_n] &gt;=0.4267 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [Hshld_Mntn1_n] &gt;=0.7165 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [Renter_n] &gt;=0.1731 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [Live_Alone_n] &gt;=0.3674 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [LonePar3Kids_n] &gt;=0.3099 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [Fam_GT5_n] &gt;=0.2184 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [Moved_LT1_n] &gt;=0.2695 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [Imm_LT5_n] &gt;=0.1421 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [No_EngFr_n] &gt;=0.0808 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [NoSec_School_n] &gt;=0.2405 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [Age_GT65_n] &gt;=0.3136 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [Age_LT6_n] &gt;=0.378 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [Indigenous_n] &gt;=0.2029 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [Vis_Min_n] &gt;=0.4148 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [Shltr_GT30_n] &gt;=0.4084 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [Inc_LowDecile_n] &gt;=0.6936 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [Unemployed_n] &gt;=0.2887 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [Work_None_n] &gt;=0.464 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [Work_Parttime_n] &gt;=0.5845 Then 1 Else 0</t>
+  </si>
+  <si>
+    <t>IF [Employ_Inc_n] &gt;=0.4275Then 1 Else 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1110,6 +1110,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1137,7 +1143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1176,6 +1182,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1185,10 +1194,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1304,7 +1313,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Model-Input Table" dataCellStyle="Normal"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Source Attribute Name" dataCellStyle="Normal"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="interim parameter" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Data Transformation" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Data Transformation" dataDxfId="3" dataCellStyle="Normal"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PostGIS Attribute" dataCellStyle="Normal"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Unit" dataCellStyle="Normal"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="PostGIS Short Name" dataCellStyle="Normal"/>
@@ -1322,8 +1331,8 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Heirarchy" dataCellStyle="Normal"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Model-Input Table" dataCellStyle="Normal"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Source Attribute Name" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="interim parameter" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Data Transformation" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="interim parameter" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Data Transformation" dataDxfId="1" dataCellStyle="Normal"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="PostGIS Attribute" dataCellStyle="Normal"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Unit" dataCellStyle="Normal"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="PostGIS Short Name" dataCellStyle="Normal"/>
@@ -1342,7 +1351,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Model-Input Table" dataCellStyle="Normal"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Source Attribute Name" dataCellStyle="Normal"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="interim parameter" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Data Transformation" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Data Transformation" dataDxfId="0" dataCellStyle="Normal"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="PostGIS Attribute" dataCellStyle="Normal"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Unit" dataCellStyle="Normal"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="PostGIS Short Name" dataCellStyle="Normal"/>
@@ -1554,8 +1563,8 @@
   </sheetPr>
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1872,8 +1881,8 @@
       <c r="G13" s="8">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>67</v>
+      <c r="H13" s="16" t="s">
+        <v>315</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>55</v>
@@ -1917,7 +1926,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>43</v>
@@ -1930,13 +1939,13 @@
         <v>22</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1944,15 +1953,15 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8">
         <v>0.76990000000000003</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>80</v>
+      <c r="H16" s="16" t="s">
+        <v>316</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>62</v>
@@ -1969,26 +1978,26 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1996,26 +2005,26 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2023,24 +2032,24 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8">
         <v>0.55230000000000001</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>89</v>
+      <c r="H19" s="16" t="s">
+        <v>317</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2048,26 +2057,26 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2075,26 +2084,26 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2102,24 +2111,24 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8">
         <v>0.42670000000000002</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>102</v>
+      <c r="H22" s="16" t="s">
+        <v>318</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2127,26 +2136,26 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2154,26 +2163,26 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2181,31 +2190,31 @@
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8">
         <v>0.71650000000000003</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>109</v>
+      <c r="H25" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2221,26 +2230,26 @@
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2248,26 +2257,26 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2275,24 +2284,24 @@
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8">
         <v>0.1731</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>121</v>
+      <c r="H29" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2300,26 +2309,26 @@
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2327,26 +2336,26 @@
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2354,24 +2363,24 @@
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8">
         <v>0.3674</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>132</v>
+      <c r="H32" s="16" t="s">
+        <v>321</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2379,26 +2388,26 @@
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2406,26 +2415,26 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2433,24 +2442,24 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8">
         <v>0.30990000000000001</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>146</v>
+      <c r="H35" s="16" t="s">
+        <v>322</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2458,26 +2467,26 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2485,26 +2494,26 @@
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2512,24 +2521,24 @@
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="8" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8">
         <v>0.21840000000000001</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>159</v>
+      <c r="H38" s="16" t="s">
+        <v>323</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2537,26 +2546,26 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="8" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2564,26 +2573,26 @@
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="8" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2591,24 +2600,24 @@
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8">
         <v>0.26950000000000002</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>171</v>
+      <c r="H41" s="16" t="s">
+        <v>324</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2616,26 +2625,26 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2643,26 +2652,26 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2670,31 +2679,31 @@
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="8" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8">
         <v>0.1421</v>
       </c>
-      <c r="H44" s="10" t="s">
-        <v>182</v>
+      <c r="H44" s="16" t="s">
+        <v>325</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2710,26 +2719,26 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="8" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2737,26 +2746,26 @@
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="8" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2764,24 +2773,24 @@
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="8" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="H48" s="10" t="s">
-        <v>192</v>
+      <c r="H48" s="16" t="s">
+        <v>326</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2789,26 +2798,26 @@
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="8" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2816,26 +2825,26 @@
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="8" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2843,24 +2852,24 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="8" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8">
         <v>0.24049999999999999</v>
       </c>
-      <c r="H51" s="10" t="s">
-        <v>206</v>
+      <c r="H51" s="16" t="s">
+        <v>327</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2868,26 +2877,26 @@
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="8" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2895,26 +2904,26 @@
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="8" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2922,24 +2931,24 @@
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="8" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8">
         <v>0.31359999999999999</v>
       </c>
-      <c r="H54" s="10" t="s">
-        <v>218</v>
+      <c r="H54" s="16" t="s">
+        <v>328</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2947,26 +2956,26 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="8" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2974,26 +2983,26 @@
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="8" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="J56" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3001,24 +3010,24 @@
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="8" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8">
         <v>0.378</v>
       </c>
-      <c r="H57" s="10" t="s">
-        <v>232</v>
+      <c r="H57" s="16" t="s">
+        <v>329</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="J57" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3026,26 +3035,26 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="8" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="J58" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3053,26 +3062,26 @@
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="8" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="J59" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3080,24 +3089,24 @@
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="8" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8">
         <v>0.2029</v>
       </c>
-      <c r="H60" s="10" t="s">
-        <v>248</v>
+      <c r="H60" s="16" t="s">
+        <v>330</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="J60" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3105,26 +3114,26 @@
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="8" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="J61" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3132,26 +3141,26 @@
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="8" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="J62" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3159,31 +3168,31 @@
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="8" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8">
         <v>0.4148</v>
       </c>
-      <c r="H63" s="10" t="s">
-        <v>257</v>
+      <c r="H63" s="16" t="s">
+        <v>331</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="J63" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3199,26 +3208,26 @@
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="8" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="J65" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3226,26 +3235,26 @@
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="8" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="J66" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3253,24 +3262,24 @@
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="8" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8">
         <v>0.40839999999999999</v>
       </c>
-      <c r="H67" s="10" t="s">
-        <v>269</v>
+      <c r="H67" s="16" t="s">
+        <v>332</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="J67" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3278,26 +3287,26 @@
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="8" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="J68" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3305,26 +3314,26 @@
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="8" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="J69" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3332,24 +3341,24 @@
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="8" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8">
         <v>0.69359999999999999</v>
       </c>
-      <c r="H70" s="10" t="s">
-        <v>284</v>
+      <c r="H70" s="16" t="s">
+        <v>333</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="J70" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3357,26 +3366,26 @@
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="8" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="J71" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3384,26 +3393,26 @@
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="8" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="J72" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3411,24 +3420,24 @@
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="8" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8">
         <v>0.28870000000000001</v>
       </c>
-      <c r="H73" s="10" t="s">
-        <v>301</v>
+      <c r="H73" s="16" t="s">
+        <v>334</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="J73" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3436,26 +3445,26 @@
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="8" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="J74" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3463,26 +3472,26 @@
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="8" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="J75" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3490,24 +3499,24 @@
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="8" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8">
         <v>0.46400000000000002</v>
       </c>
-      <c r="H76" s="10" t="s">
-        <v>314</v>
+      <c r="H76" s="16" t="s">
+        <v>335</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="J76" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3515,26 +3524,26 @@
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="8" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="J77" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3542,26 +3551,26 @@
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="8" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="G78" s="8"/>
       <c r="H78" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="J78" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3569,24 +3578,24 @@
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="8" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8">
         <v>0.58450000000000002</v>
       </c>
-      <c r="H79" s="10" t="s">
-        <v>324</v>
+      <c r="H79" s="16" t="s">
+        <v>336</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="J79" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3594,26 +3603,26 @@
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="8" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3621,26 +3630,26 @@
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="8" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3648,24 +3657,24 @@
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="8" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8">
         <v>0.42749999999999999</v>
       </c>
-      <c r="H82" s="10" t="s">
-        <v>331</v>
+      <c r="H82" s="16" t="s">
+        <v>337</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4634,18 +4643,18 @@
         <v>28</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="12"/>
       <c r="I14" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4653,26 +4662,26 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4680,24 +4689,24 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="12"/>
       <c r="I16" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4705,26 +4714,26 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4732,24 +4741,24 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="12"/>
       <c r="I18" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4757,26 +4766,26 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4796,7 +4805,7 @@
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -4840,19 +4849,19 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4860,24 +4869,24 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="12"/>
       <c r="I24" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4885,26 +4894,26 @@
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4912,24 +4921,24 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="12"/>
       <c r="I26" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4937,26 +4946,26 @@
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="12" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4964,24 +4973,24 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="12"/>
       <c r="I28" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4989,26 +4998,26 @@
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="12" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5016,24 +5025,24 @@
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="12"/>
       <c r="I30" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5041,26 +5050,26 @@
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="12" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5068,24 +5077,24 @@
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="12"/>
       <c r="I32" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5093,26 +5102,26 @@
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="12" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5120,24 +5129,24 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="12"/>
       <c r="I34" s="8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5145,26 +5154,26 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="8" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="12" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5184,7 +5193,7 @@
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -5242,16 +5251,16 @@
       <c r="F40" s="8"/>
       <c r="G40" s="14"/>
       <c r="H40" s="12" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5259,24 +5268,24 @@
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="8" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="12"/>
       <c r="I41" s="8" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5284,26 +5293,26 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="8" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="12" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5311,24 +5320,24 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="8" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="12"/>
       <c r="I43" s="8" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5336,26 +5345,26 @@
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="8" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="12" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5363,24 +5372,24 @@
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="8" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="12"/>
       <c r="I45" s="8" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5388,26 +5397,26 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="8" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="12" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5415,24 +5424,24 @@
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="8" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="12"/>
       <c r="I47" s="8" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5440,26 +5449,26 @@
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="8" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="12" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5467,24 +5476,24 @@
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="8" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="12"/>
       <c r="I49" s="8" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5492,26 +5501,26 @@
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="8" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="12" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5519,24 +5528,24 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="8" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="12"/>
       <c r="I51" s="8" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5544,26 +5553,26 @@
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="8" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="12" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5583,7 +5592,7 @@
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -5627,19 +5636,19 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="14" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="J56" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5647,24 +5656,24 @@
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="8" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="12"/>
       <c r="I57" s="8" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="J57" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5672,26 +5681,26 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="8" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="12" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="J58" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5699,24 +5708,24 @@
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="8" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="12"/>
       <c r="I59" s="8" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="J59" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5724,26 +5733,26 @@
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="8" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="12" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="J60" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5751,24 +5760,24 @@
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="8" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="12"/>
       <c r="I61" s="8" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="J61" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5776,26 +5785,26 @@
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="8" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="12" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="J62" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5803,24 +5812,24 @@
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="8" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="12"/>
       <c r="I63" s="8" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="J63" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5828,26 +5837,26 @@
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="8" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="12" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="J64" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5855,24 +5864,24 @@
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="8" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="12"/>
       <c r="I65" s="8" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="J65" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5880,26 +5889,26 @@
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="8" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="12" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="J66" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5907,24 +5916,24 @@
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="8" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="12"/>
       <c r="I67" s="8" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="J67" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -5932,26 +5941,26 @@
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="8" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="12" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="J68" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9209,26 +9218,26 @@
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9236,26 +9245,26 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9263,26 +9272,26 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9290,26 +9299,26 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9317,26 +9326,26 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9344,26 +9353,26 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9383,7 +9392,7 @@
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -9424,26 +9433,26 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9451,26 +9460,26 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9478,26 +9487,26 @@
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9505,26 +9514,26 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9532,26 +9541,26 @@
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9559,26 +9568,26 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9586,26 +9595,26 @@
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9613,26 +9622,26 @@
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9640,26 +9649,26 @@
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9667,26 +9676,26 @@
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9694,26 +9703,26 @@
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9721,26 +9730,26 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="8" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9748,26 +9757,26 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="8" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9787,7 +9796,7 @@
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -9841,26 +9850,26 @@
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="8" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9868,26 +9877,26 @@
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="8" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9895,26 +9904,26 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="8" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9922,26 +9931,26 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="8" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9949,26 +9958,26 @@
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="8" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9976,26 +9985,26 @@
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="8" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10003,26 +10012,26 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="8" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10030,26 +10039,26 @@
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="8" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10057,26 +10066,26 @@
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="8" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10084,26 +10093,26 @@
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="8" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10111,26 +10120,26 @@
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="8" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10138,26 +10147,26 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="8" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10165,26 +10174,26 @@
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="8" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10204,7 +10213,7 @@
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -10245,26 +10254,26 @@
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="8" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="J56" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10272,26 +10281,26 @@
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="8" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="J57" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10299,26 +10308,26 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="8" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="J58" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10326,26 +10335,26 @@
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="8" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="J59" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10353,26 +10362,26 @@
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="8" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="J60" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10380,26 +10389,26 @@
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="8" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="J61" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10407,26 +10416,26 @@
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="8" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="J62" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10434,26 +10443,26 @@
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="8" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="J63" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10461,26 +10470,26 @@
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="8" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="J64" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10488,26 +10497,26 @@
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="8" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="J65" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10515,26 +10524,26 @@
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="8" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="J66" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10542,26 +10551,26 @@
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="8" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="J67" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10569,26 +10578,26 @@
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="8" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="J68" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="13" x14ac:dyDescent="0.15">
